--- a/要件.xlsx
+++ b/要件.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuyaK\Programs\tamotsu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F029E0BB-D9EC-40A9-A55A-CB6B847A6F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E646040-FF56-45DE-AFE5-33A7D4519AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1F58AA4C-E30A-4470-A4E3-A33A6192FF7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F58AA4C-E30A-4470-A4E3-A33A6192FF7B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="要件" sheetId="1" r:id="rId1"/>
+    <sheet name="画面遷移" sheetId="2" r:id="rId2"/>
+    <sheet name="AWS構成" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="123">
   <si>
     <t>体型管理SaaSサービス【TAMOTSU】要件定義</t>
   </si>
@@ -2478,6 +2479,632 @@
         <family val="3"/>
       </rPr>
       <t>[ダッシュボード]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>subgraph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Client</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAA8500"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[スマホアプリ]</t>
+    </r>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <r>
+      <t>subgraph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AWS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9650C8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>subgraph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9650C8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>subgraph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Subnet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAA8500"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[API Gateway]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAA8500"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[Lambda]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9650C8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAA8500"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[Cognito User Pool]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAA8500"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[DynamoDB]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAA8500"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[S3]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAA8500"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[SES（不要かも）]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAA8500"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[CloudWatch Logs]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA22889"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>J</t>
     </r>
   </si>
 </sst>
@@ -2595,7 +3222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2621,6 +3248,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2766,6 +3396,55 @@
         <a:xfrm>
           <a:off x="0" y="13096875"/>
           <a:ext cx="8526065" cy="5582429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>458221</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>143560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E15DAC-E7F1-701E-B9F8-782CAA9A0430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7316221" cy="4906060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3076,7 +3755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24175249-18D6-42D1-A14E-022EC832A3A1}">
   <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3436,7 +4115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EC2AF1-4B6F-4852-8280-15579D25FA68}">
   <dimension ref="N1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
@@ -3720,4 +4399,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3121D979-C696-4A2A-804A-ADF2837A616D}">
+  <dimension ref="M1:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M1" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M2" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M3" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M4" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M6" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M7" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M8" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M9" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M10" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M11" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M12" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M13" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M14" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M15" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M16" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M17" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M18" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M20" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M21" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M22" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M23" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M24" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M25" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M26" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/要件.xlsx
+++ b/要件.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuyaK\Programs\tamotsu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuyaK\Programs\tamotsuApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E646040-FF56-45DE-AFE5-33A7D4519AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E449E2D-DB0D-4CB6-9C0C-29B967DA8AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F58AA4C-E30A-4470-A4E3-A33A6192FF7B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1F58AA4C-E30A-4470-A4E3-A33A6192FF7B}"/>
   </bookViews>
   <sheets>
-    <sheet name="要件" sheetId="1" r:id="rId1"/>
+    <sheet name="要件まとめ" sheetId="1" r:id="rId1"/>
     <sheet name="画面遷移" sheetId="2" r:id="rId2"/>
     <sheet name="AWS構成" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -3755,8 +3755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24175249-18D6-42D1-A14E-022EC832A3A1}">
   <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4405,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3121D979-C696-4A2A-804A-ADF2837A616D}">
   <dimension ref="M1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
